--- a/LU_factorization/Statistics.xlsx
+++ b/LU_factorization/Statistics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Parallel-Computing\LU_factorization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Parallel_Computing\LU_factorization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF8EFE1-6E76-4C81-B86E-3665B66786E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C938E02-6B44-4BDB-ABA2-3B1A2DC6F348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BC2F5F24-441F-40F2-B939-33DF84FCC196}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC2F5F24-441F-40F2-B939-33DF84FCC196}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,12 +172,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -192,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,6 +217,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -15682,16 +15694,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>90485</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>4760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16491,8 +16503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C9D096-26EC-4824-BFA5-F2B1B61EA3EA}">
   <dimension ref="A1:AM62"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE26" sqref="AE26:AE31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16511,59 +16523,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="Q1" s="7" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AC1" s="7" t="s">
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AC1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -16667,869 +16679,869 @@
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <v>1000</v>
       </c>
-      <c r="B3" s="1">
-        <v>547</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="7">
+        <v>370</v>
+      </c>
+      <c r="C3" s="7">
         <v>700</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
-        <v>548</v>
-      </c>
-      <c r="G3" s="1">
-        <v>4725</v>
-      </c>
-      <c r="H3" s="1">
-        <v>17971</v>
-      </c>
-      <c r="I3" s="1">
-        <v>42838</v>
-      </c>
-      <c r="J3" s="1">
-        <v>82068</v>
-      </c>
-      <c r="K3" s="1">
-        <v>141236</v>
-      </c>
-      <c r="L3" s="1">
-        <v>222802</v>
-      </c>
-      <c r="M3" s="1">
-        <v>331089</v>
-      </c>
-      <c r="N3" s="1">
-        <v>471297</v>
-      </c>
-      <c r="O3" s="1">
-        <v>645189</v>
+      <c r="F3" s="7">
+        <v>372</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3096</v>
+      </c>
+      <c r="H3" s="7">
+        <v>11394</v>
+      </c>
+      <c r="I3" s="7">
+        <v>27468</v>
+      </c>
+      <c r="J3" s="7">
+        <v>53668</v>
+      </c>
+      <c r="K3" s="7">
+        <v>106098</v>
+      </c>
+      <c r="L3" s="7">
+        <v>146330</v>
+      </c>
+      <c r="M3" s="7">
+        <v>217864</v>
+      </c>
+      <c r="N3" s="7">
+        <v>310564</v>
+      </c>
+      <c r="O3" s="7">
+        <v>431497</v>
       </c>
       <c r="Q3" s="1">
         <v>1</v>
       </c>
       <c r="R3" s="1">
         <f>B3/F3</f>
-        <v>0.99817518248175185</v>
+        <v>0.9946236559139785</v>
       </c>
       <c r="S3" s="1">
         <f>B4/G3</f>
-        <v>1.0023280423280423</v>
+        <v>1.0032299741602067</v>
       </c>
       <c r="T3" s="1">
         <f>B5/H3</f>
-        <v>0.99738467531022201</v>
+        <v>1.0054414604177637</v>
       </c>
       <c r="U3" s="1">
         <f>B6/I3</f>
-        <v>0.9940940286661375</v>
+        <v>1.0044779379641764</v>
       </c>
       <c r="V3" s="1">
         <f>B7/J3</f>
-        <v>1.0072622703124239</v>
+        <v>0.99852798688231348</v>
       </c>
       <c r="W3" s="1">
         <f>B8/K3</f>
-        <v>0.99949021495935886</v>
+        <v>0.87046881185319236</v>
       </c>
       <c r="X3" s="1">
         <f>B9/L3</f>
-        <v>0.99993716393928245</v>
+        <v>1.1089865372787535</v>
       </c>
       <c r="Y3" s="1">
         <f>B10/M3</f>
-        <v>0.99958621397871872</v>
+        <v>0.99828792274079237</v>
       </c>
       <c r="Z3" s="1">
         <f>B11/N3</f>
-        <v>1.0906689412408737</v>
+        <v>0.99590100591182495</v>
       </c>
       <c r="AA3" s="1">
         <f>B12/O3</f>
-        <v>0.99571908386534802</v>
+        <v>1.0591591598551091</v>
       </c>
       <c r="AC3" s="6">
         <v>1</v>
       </c>
       <c r="AD3" s="6">
         <f>R3/AC3</f>
-        <v>0.99817518248175185</v>
+        <v>0.9946236559139785</v>
       </c>
       <c r="AE3" s="6">
         <f>S3/AC3</f>
-        <v>1.0023280423280423</v>
+        <v>1.0032299741602067</v>
       </c>
       <c r="AF3" s="6">
         <f>T3/AC3</f>
-        <v>0.99738467531022201</v>
+        <v>1.0054414604177637</v>
       </c>
       <c r="AG3" s="6">
         <f>U3/AC3</f>
-        <v>0.9940940286661375</v>
+        <v>1.0044779379641764</v>
       </c>
       <c r="AH3" s="6">
         <f>V3/AC3</f>
-        <v>1.0072622703124239</v>
+        <v>0.99852798688231348</v>
       </c>
       <c r="AI3" s="6">
         <f>W3/AC3</f>
-        <v>0.99949021495935886</v>
+        <v>0.87046881185319236</v>
       </c>
       <c r="AJ3" s="6">
         <f>X3/AC3</f>
-        <v>0.99993716393928245</v>
+        <v>1.1089865372787535</v>
       </c>
       <c r="AK3" s="6">
         <f>Y3/AC3</f>
-        <v>0.99958621397871872</v>
+        <v>0.99828792274079237</v>
       </c>
       <c r="AL3" s="6">
         <f>Z3/AC3</f>
-        <v>1.0906689412408737</v>
+        <v>0.99590100591182495</v>
       </c>
       <c r="AM3" s="6">
         <f>AA3/AC3</f>
-        <v>0.99571908386534802</v>
+        <v>1.0591591598551091</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="7">
         <v>2000</v>
       </c>
-      <c r="B4" s="1">
-        <v>4736</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="7">
+        <v>3106</v>
+      </c>
+      <c r="C4" s="7">
         <v>5589</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="1">
-        <v>279</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2179</v>
-      </c>
-      <c r="H4" s="1">
-        <v>9240</v>
-      </c>
-      <c r="I4" s="1">
-        <v>24639</v>
-      </c>
-      <c r="J4" s="1">
-        <v>48628</v>
-      </c>
-      <c r="K4" s="1">
-        <v>83878</v>
-      </c>
-      <c r="L4" s="1">
-        <v>132361</v>
-      </c>
-      <c r="M4" s="1">
-        <v>196438</v>
-      </c>
-      <c r="N4" s="1">
-        <v>277746</v>
-      </c>
-      <c r="O4" s="1">
-        <v>380096</v>
+      <c r="F4" s="7">
+        <v>190</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1465</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5816</v>
+      </c>
+      <c r="I4" s="7">
+        <v>15372</v>
+      </c>
+      <c r="J4" s="7">
+        <v>30950</v>
+      </c>
+      <c r="K4" s="7">
+        <v>54026</v>
+      </c>
+      <c r="L4" s="7">
+        <v>86418</v>
+      </c>
+      <c r="M4" s="7">
+        <v>128468</v>
+      </c>
+      <c r="N4" s="7">
+        <v>182214</v>
+      </c>
+      <c r="O4" s="7">
+        <v>249568</v>
       </c>
       <c r="Q4" s="1">
         <v>2</v>
       </c>
       <c r="R4" s="1">
         <f>B3/F4</f>
-        <v>1.9605734767025089</v>
+        <v>1.9473684210526316</v>
       </c>
       <c r="S4" s="1">
         <f>B4/G4</f>
-        <v>2.1734740706746214</v>
+        <v>2.1201365187713312</v>
       </c>
       <c r="T4" s="1">
         <f>B5/H4</f>
-        <v>1.9398268398268399</v>
+        <v>1.9697386519944979</v>
       </c>
       <c r="U4" s="1">
         <f>B6/I4</f>
-        <v>1.7283574820406673</v>
+        <v>1.7948868071818891</v>
       </c>
       <c r="V4" s="1">
         <f>B7/J4</f>
-        <v>1.6999259685777741</v>
+        <v>1.731470113085622</v>
       </c>
       <c r="W4" s="1">
         <f>B8/K4</f>
-        <v>1.6829681203652924</v>
+        <v>1.7094547069929293</v>
       </c>
       <c r="X4" s="1">
         <f>B9/L4</f>
-        <v>1.6831846238695689</v>
+        <v>1.8778263787636835</v>
       </c>
       <c r="Y4" s="1">
         <f>B10/M4</f>
-        <v>1.6847656767020638</v>
+        <v>1.6929585577731419</v>
       </c>
       <c r="Z4" s="1">
         <f>B11/N4</f>
-        <v>1.8507161219243482</v>
+        <v>1.6974052487734204</v>
       </c>
       <c r="AA4" s="1">
         <f>B12/O4</f>
-        <v>1.6901703780097659</v>
+        <v>1.831260418002308</v>
       </c>
       <c r="AC4" s="6">
         <v>2</v>
       </c>
       <c r="AD4" s="6">
         <f t="shared" ref="AD4:AD8" si="0">R4/AC4</f>
-        <v>0.98028673835125446</v>
+        <v>0.97368421052631582</v>
       </c>
       <c r="AE4" s="6">
         <f t="shared" ref="AE4:AE8" si="1">S4/AC4</f>
-        <v>1.0867370353373107</v>
+        <v>1.0600682593856656</v>
       </c>
       <c r="AF4" s="6">
         <f t="shared" ref="AF4:AF8" si="2">T4/AC4</f>
-        <v>0.96991341991341995</v>
+        <v>0.98486932599724897</v>
       </c>
       <c r="AG4" s="6">
         <f t="shared" ref="AG4:AG8" si="3">U4/AC4</f>
-        <v>0.86417874102033365</v>
+        <v>0.89744340359094454</v>
       </c>
       <c r="AH4" s="6">
         <f t="shared" ref="AH4:AH8" si="4">V4/AC4</f>
-        <v>0.84996298428888706</v>
+        <v>0.86573505654281102</v>
       </c>
       <c r="AI4" s="6">
         <f t="shared" ref="AI4:AI8" si="5">W4/AC4</f>
-        <v>0.84148406018264621</v>
+        <v>0.85472735349646467</v>
       </c>
       <c r="AJ4" s="6">
         <f t="shared" ref="AJ4:AJ8" si="6">X4/AC4</f>
-        <v>0.84159231193478445</v>
+        <v>0.93891318938184176</v>
       </c>
       <c r="AK4" s="6">
         <f t="shared" ref="AK4:AK8" si="7">Y4/AC4</f>
-        <v>0.84238283835103189</v>
+        <v>0.84647927888657093</v>
       </c>
       <c r="AL4" s="6">
         <f t="shared" ref="AL4:AL8" si="8">Z4/AC4</f>
-        <v>0.9253580609621741</v>
+        <v>0.84870262438671018</v>
       </c>
       <c r="AM4" s="6">
         <f t="shared" ref="AM4:AM8" si="9">AA4/AC4</f>
-        <v>0.84508518900488294</v>
+        <v>0.91563020900115399</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="7">
         <v>3000</v>
       </c>
-      <c r="B5" s="1">
-        <v>17924</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="7">
+        <v>11456</v>
+      </c>
+      <c r="C5" s="7">
         <v>18995</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="1">
-        <v>142</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1127</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4866</v>
-      </c>
-      <c r="I5" s="1">
-        <v>14057</v>
-      </c>
-      <c r="J5" s="1">
-        <v>28684</v>
-      </c>
-      <c r="K5" s="1">
-        <v>49806</v>
-      </c>
-      <c r="L5" s="1">
-        <v>79213</v>
-      </c>
-      <c r="M5" s="1">
-        <v>117130</v>
-      </c>
-      <c r="N5" s="1">
-        <v>167301</v>
-      </c>
-      <c r="O5" s="1">
-        <v>232210</v>
+      <c r="F5" s="7">
+        <v>96</v>
+      </c>
+      <c r="G5" s="7">
+        <v>739</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3059</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8800</v>
+      </c>
+      <c r="J5" s="7">
+        <v>18489</v>
+      </c>
+      <c r="K5" s="7">
+        <v>32669</v>
+      </c>
+      <c r="L5" s="7">
+        <v>52024</v>
+      </c>
+      <c r="M5" s="7">
+        <v>78229</v>
+      </c>
+      <c r="N5" s="7">
+        <v>111383</v>
+      </c>
+      <c r="O5" s="7">
+        <v>151991</v>
       </c>
       <c r="Q5" s="1">
         <v>4</v>
       </c>
       <c r="R5" s="1">
         <f>B3/F5</f>
-        <v>3.852112676056338</v>
+        <v>3.8541666666666665</v>
       </c>
       <c r="S5" s="1">
         <f>B4/G5</f>
-        <v>4.2023070097604256</v>
+        <v>4.2029769959404604</v>
       </c>
       <c r="T5" s="1">
         <f>B5/H5</f>
-        <v>3.6835182901767367</v>
+        <v>3.7450147106897678</v>
       </c>
       <c r="U5" s="1">
         <f>B6/I5</f>
-        <v>3.0294515188162481</v>
+        <v>3.135340909090909</v>
       </c>
       <c r="V5" s="1">
         <f>B7/J5</f>
-        <v>2.8818853716357551</v>
+        <v>2.8984260911893558</v>
       </c>
       <c r="W5" s="1">
         <f>B8/K5</f>
-        <v>2.8342769947395898</v>
+        <v>2.8269919495546239</v>
       </c>
       <c r="X5" s="1">
         <f>B9/L5</f>
-        <v>2.8125181472738059</v>
+        <v>3.1192910964170384</v>
       </c>
       <c r="Y5" s="1">
         <f>B10/M5</f>
-        <v>2.8255101169640571</v>
+        <v>2.7801838192997481</v>
       </c>
       <c r="Z5" s="1">
         <f>B11/N5</f>
-        <v>3.0724801405849336</v>
+        <v>2.7768241113994057</v>
       </c>
       <c r="AA5" s="1">
         <f>B12/O5</f>
-        <v>2.7665776667671502</v>
+        <v>3.0069148831180792</v>
       </c>
       <c r="AC5" s="6">
         <v>4</v>
       </c>
       <c r="AD5" s="6">
         <f t="shared" si="0"/>
-        <v>0.9630281690140845</v>
+        <v>0.96354166666666663</v>
       </c>
       <c r="AE5" s="6">
         <f t="shared" si="1"/>
-        <v>1.0505767524401064</v>
+        <v>1.0507442489851151</v>
       </c>
       <c r="AF5" s="6">
         <f t="shared" si="2"/>
-        <v>0.92087957254418418</v>
+        <v>0.93625367767244194</v>
       </c>
       <c r="AG5" s="6">
         <f t="shared" si="3"/>
-        <v>0.75736287970406202</v>
+        <v>0.78383522727272725</v>
       </c>
       <c r="AH5" s="6">
         <f t="shared" si="4"/>
-        <v>0.72047134290893877</v>
+        <v>0.72460652279733895</v>
       </c>
       <c r="AI5" s="6">
         <f t="shared" si="5"/>
-        <v>0.70856924868489746</v>
+        <v>0.70674798738865596</v>
       </c>
       <c r="AJ5" s="6">
         <f t="shared" si="6"/>
-        <v>0.70312953681845147</v>
+        <v>0.7798227741042596</v>
       </c>
       <c r="AK5" s="6">
         <f t="shared" si="7"/>
-        <v>0.70637752924101427</v>
+        <v>0.69504595482493703</v>
       </c>
       <c r="AL5" s="6">
         <f t="shared" si="8"/>
-        <v>0.76812003514623339</v>
+        <v>0.69420602784985141</v>
       </c>
       <c r="AM5" s="6">
         <f t="shared" si="9"/>
-        <v>0.69164441669178756</v>
+        <v>0.7517287207795198</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="7">
         <v>4000</v>
       </c>
-      <c r="B6" s="1">
-        <v>42585</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="7">
+        <v>27591</v>
+      </c>
+      <c r="C6" s="7">
         <v>45103</v>
       </c>
       <c r="E6" s="1">
         <v>8</v>
       </c>
-      <c r="F6" s="1">
-        <v>74</v>
-      </c>
-      <c r="G6" s="1">
-        <v>637</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3208</v>
-      </c>
-      <c r="I6" s="1">
-        <v>10815</v>
-      </c>
-      <c r="J6" s="1">
-        <v>23043</v>
-      </c>
-      <c r="K6" s="1">
-        <v>40669</v>
-      </c>
-      <c r="L6" s="1">
-        <v>64764</v>
-      </c>
-      <c r="M6" s="1">
-        <v>97219</v>
-      </c>
-      <c r="N6" s="1">
-        <v>139206</v>
-      </c>
-      <c r="O6" s="1">
-        <v>193973</v>
+      <c r="F6" s="7">
+        <v>51</v>
+      </c>
+      <c r="G6" s="7">
+        <v>376</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1860</v>
+      </c>
+      <c r="I6" s="7">
+        <v>6665</v>
+      </c>
+      <c r="J6" s="7">
+        <v>14623</v>
+      </c>
+      <c r="K6" s="7">
+        <v>26404</v>
+      </c>
+      <c r="L6" s="7">
+        <v>42367</v>
+      </c>
+      <c r="M6" s="7">
+        <v>64053</v>
+      </c>
+      <c r="N6" s="7">
+        <v>91850</v>
+      </c>
+      <c r="O6" s="7">
+        <v>126308</v>
       </c>
       <c r="Q6" s="1">
         <v>8</v>
       </c>
       <c r="R6" s="1">
         <f>B3/F6</f>
-        <v>7.3918918918918921</v>
+        <v>7.2549019607843137</v>
       </c>
       <c r="S6" s="1">
         <f>B4/G6</f>
-        <v>7.4348508634222918</v>
+        <v>8.2606382978723403</v>
       </c>
       <c r="T6" s="1">
         <f>B5/H6</f>
-        <v>5.5872817955112222</v>
+        <v>6.1591397849462366</v>
       </c>
       <c r="U6" s="1">
         <f>B6/I6</f>
-        <v>3.9375866851595007</v>
+        <v>4.139684921230308</v>
       </c>
       <c r="V6" s="1">
         <f>B7/J6</f>
-        <v>3.5873801154363583</v>
+        <v>3.6647062846201188</v>
       </c>
       <c r="W6" s="1">
         <f>B8/K6</f>
-        <v>3.4710467432196515</v>
+        <v>3.4977654900772612</v>
       </c>
       <c r="X6" s="1">
         <f>B9/L6</f>
-        <v>3.4399975294916931</v>
+        <v>3.8302924445913091</v>
       </c>
       <c r="Y6" s="1">
         <f>B10/M6</f>
-        <v>3.4041905388864317</v>
+        <v>3.3954849889934899</v>
       </c>
       <c r="Z6" s="1">
         <f>B11/N6</f>
-        <v>3.6925779061247361</v>
+        <v>3.3673489384866628</v>
       </c>
       <c r="AA6" s="1">
         <f>B12/O6</f>
-        <v>3.3119403215911492</v>
+        <v>3.6183297970041486</v>
       </c>
       <c r="AC6" s="6">
         <v>8</v>
       </c>
       <c r="AD6" s="6">
         <f t="shared" si="0"/>
-        <v>0.92398648648648651</v>
+        <v>0.90686274509803921</v>
       </c>
       <c r="AE6" s="6">
         <f t="shared" si="1"/>
-        <v>0.92935635792778648</v>
+        <v>1.0325797872340425</v>
       </c>
       <c r="AF6" s="6">
         <f t="shared" si="2"/>
-        <v>0.69841022443890277</v>
+        <v>0.76989247311827957</v>
       </c>
       <c r="AG6" s="6">
         <f t="shared" si="3"/>
-        <v>0.49219833564493759</v>
+        <v>0.51746061515378849</v>
       </c>
       <c r="AH6" s="6">
         <f t="shared" si="4"/>
-        <v>0.44842251442954478</v>
+        <v>0.45808828557751485</v>
       </c>
       <c r="AI6" s="6">
         <f t="shared" si="5"/>
-        <v>0.43388084290245643</v>
+        <v>0.43722068625965765</v>
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="6"/>
-        <v>0.42999969118646164</v>
+        <v>0.47878655557391364</v>
       </c>
       <c r="AK6" s="6">
         <f t="shared" si="7"/>
-        <v>0.42552381736080397</v>
+        <v>0.42443562362418624</v>
       </c>
       <c r="AL6" s="6">
         <f t="shared" si="8"/>
-        <v>0.46157223826559202</v>
+        <v>0.42091861731083285</v>
       </c>
       <c r="AM6" s="6">
         <f t="shared" si="9"/>
-        <v>0.41399254019889364</v>
+        <v>0.45229122462551857</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="7">
         <v>5000</v>
       </c>
-      <c r="B7" s="1">
-        <v>82664</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="7">
+        <v>53589</v>
+      </c>
+      <c r="C7" s="7">
         <v>88014</v>
       </c>
       <c r="E7" s="1">
         <v>16</v>
       </c>
-      <c r="F7" s="1">
-        <v>72</v>
-      </c>
-      <c r="G7" s="1">
-        <v>416</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2660</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10473</v>
-      </c>
-      <c r="J7" s="1">
-        <v>22982</v>
-      </c>
-      <c r="K7" s="1">
-        <v>41053</v>
-      </c>
-      <c r="L7" s="1">
-        <v>65732</v>
-      </c>
-      <c r="M7" s="1">
-        <v>98955</v>
-      </c>
-      <c r="N7" s="1">
-        <v>142400</v>
-      </c>
-      <c r="O7" s="1">
-        <v>197639</v>
+      <c r="F7" s="7">
+        <v>30</v>
+      </c>
+      <c r="G7" s="7">
+        <v>200</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1449</v>
+      </c>
+      <c r="I7" s="7">
+        <v>6184</v>
+      </c>
+      <c r="J7" s="7">
+        <v>14080</v>
+      </c>
+      <c r="K7" s="7">
+        <v>25751</v>
+      </c>
+      <c r="L7" s="7">
+        <v>42045</v>
+      </c>
+      <c r="M7" s="7">
+        <v>63715</v>
+      </c>
+      <c r="N7" s="7">
+        <v>91266</v>
+      </c>
+      <c r="O7" s="7">
+        <v>125679</v>
       </c>
       <c r="Q7" s="1">
         <v>16</v>
       </c>
       <c r="R7" s="1">
         <f>B3/F7</f>
-        <v>7.5972222222222223</v>
+        <v>12.333333333333334</v>
       </c>
       <c r="S7" s="1">
         <f>B4/G7</f>
-        <v>11.384615384615385</v>
+        <v>15.53</v>
       </c>
       <c r="T7" s="1">
         <f>B5/H7</f>
-        <v>6.7383458646616541</v>
+        <v>7.9061421670117324</v>
       </c>
       <c r="U7" s="1">
         <f>B6/I7</f>
-        <v>4.0661701518189632</v>
+        <v>4.4616752910737389</v>
       </c>
       <c r="V7" s="1">
         <f>B7/J7</f>
-        <v>3.5969019232442783</v>
+        <v>3.8060369318181819</v>
       </c>
       <c r="W7" s="1">
         <f>B8/K7</f>
-        <v>3.4385793973643826</v>
+        <v>3.5864626616442079</v>
       </c>
       <c r="X7" s="1">
         <f>B9/L7</f>
-        <v>3.3893385261364326</v>
+        <v>3.8596265905577356</v>
       </c>
       <c r="Y7" s="1">
         <f>B10/M7</f>
-        <v>3.3444697084533375</v>
+        <v>3.413497606529075</v>
       </c>
       <c r="Z7" s="1">
         <f>B11/N7</f>
-        <v>3.609754213483146</v>
+        <v>3.3888961935441455</v>
       </c>
       <c r="AA7" s="1">
         <f>B12/O7</f>
-        <v>3.2505072379439279</v>
+        <v>3.6364388640902616</v>
       </c>
       <c r="AC7" s="6">
         <v>16</v>
       </c>
       <c r="AD7" s="6">
         <f t="shared" si="0"/>
-        <v>0.4748263888888889</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="AE7" s="6">
         <f t="shared" si="1"/>
-        <v>0.71153846153846156</v>
+        <v>0.97062499999999996</v>
       </c>
       <c r="AF7" s="6">
         <f t="shared" si="2"/>
-        <v>0.42114661654135338</v>
+        <v>0.49413388543823328</v>
       </c>
       <c r="AG7" s="6">
         <f t="shared" si="3"/>
-        <v>0.2541356344886852</v>
+        <v>0.27885470569210868</v>
       </c>
       <c r="AH7" s="6">
         <f t="shared" si="4"/>
-        <v>0.22480637020276739</v>
+        <v>0.23787730823863637</v>
       </c>
       <c r="AI7" s="6">
         <f t="shared" si="5"/>
-        <v>0.21491121233527391</v>
+        <v>0.22415391635276299</v>
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="6"/>
-        <v>0.21183365788352704</v>
+        <v>0.24122666190985848</v>
       </c>
       <c r="AK7" s="6">
         <f t="shared" si="7"/>
-        <v>0.20902935677833359</v>
+        <v>0.21334360040806719</v>
       </c>
       <c r="AL7" s="6">
         <f t="shared" si="8"/>
-        <v>0.22560963834269662</v>
+        <v>0.21180601209650909</v>
       </c>
       <c r="AM7" s="6">
         <f t="shared" si="9"/>
-        <v>0.2031567023714955</v>
+        <v>0.22727742900564135</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="7">
         <v>6000</v>
       </c>
-      <c r="B8" s="1">
-        <v>141164</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="7">
+        <v>92355</v>
+      </c>
+      <c r="C8" s="7">
         <v>151916</v>
       </c>
       <c r="E8" s="1">
         <v>20</v>
       </c>
-      <c r="F8" s="1">
-        <v>68</v>
-      </c>
-      <c r="G8" s="1">
-        <v>402</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2636</v>
-      </c>
-      <c r="I8" s="1">
-        <v>10705</v>
-      </c>
-      <c r="J8" s="1">
-        <v>23185</v>
-      </c>
-      <c r="K8" s="1">
-        <v>41990</v>
-      </c>
-      <c r="L8" s="1">
-        <v>67482</v>
-      </c>
-      <c r="M8" s="1">
-        <v>103633</v>
-      </c>
-      <c r="N8" s="1">
-        <v>145650</v>
-      </c>
-      <c r="O8" s="1">
-        <v>202354</v>
+      <c r="F8" s="7">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7">
+        <v>167</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1513</v>
+      </c>
+      <c r="I8" s="7">
+        <v>6147</v>
+      </c>
+      <c r="J8" s="7">
+        <v>14140</v>
+      </c>
+      <c r="K8" s="7">
+        <v>25820</v>
+      </c>
+      <c r="L8" s="7">
+        <v>42187</v>
+      </c>
+      <c r="M8" s="7">
+        <v>65858</v>
+      </c>
+      <c r="N8" s="7">
+        <v>92993</v>
+      </c>
+      <c r="O8" s="7">
+        <v>127607</v>
       </c>
       <c r="Q8" s="1">
         <v>20</v>
       </c>
       <c r="R8" s="1">
         <f>B3/F8</f>
-        <v>8.0441176470588243</v>
+        <v>13.703703703703704</v>
       </c>
       <c r="S8" s="1">
         <f>B4/G8</f>
-        <v>11.781094527363184</v>
+        <v>18.598802395209582</v>
       </c>
       <c r="T8" s="1">
         <f>B5/H8</f>
-        <v>6.7996965098634297</v>
+        <v>7.5717118307997353</v>
       </c>
       <c r="U8" s="1">
         <f>B6/I8</f>
-        <v>3.978047641289117</v>
+        <v>4.4885309907271838</v>
       </c>
       <c r="V8" s="1">
         <f>B7/J8</f>
-        <v>3.5654086693983178</v>
+        <v>3.7898868458274397</v>
       </c>
       <c r="W8" s="1">
         <f>B8/K8</f>
-        <v>3.3618480590616815</v>
+        <v>3.5768783888458557</v>
       </c>
       <c r="X8" s="1">
         <f>B9/L8</f>
-        <v>3.3014433478557246</v>
+        <v>3.8466352193803779</v>
       </c>
       <c r="Y8" s="1">
         <f>B10/M8</f>
-        <v>3.1935001399168219</v>
+        <v>3.3024233957909441</v>
       </c>
       <c r="Z8" s="1">
         <f>B11/N8</f>
-        <v>3.5292070030895983</v>
+        <v>3.3259600184960156</v>
       </c>
       <c r="AA8" s="1">
         <f>B12/O8</f>
-        <v>3.1747679808652163</v>
+        <v>3.5814963128981954</v>
       </c>
       <c r="AC8" s="6">
         <v>20</v>
       </c>
       <c r="AD8" s="6">
         <f t="shared" si="0"/>
-        <v>0.40220588235294119</v>
+        <v>0.68518518518518523</v>
       </c>
       <c r="AE8" s="6">
         <f t="shared" si="1"/>
-        <v>0.58905472636815914</v>
+        <v>0.92994011976047908</v>
       </c>
       <c r="AF8" s="6">
         <f t="shared" si="2"/>
-        <v>0.33998482549317149</v>
+        <v>0.37858559153998678</v>
       </c>
       <c r="AG8" s="6">
         <f t="shared" si="3"/>
-        <v>0.19890238206445585</v>
+        <v>0.22442654953635918</v>
       </c>
       <c r="AH8" s="6">
         <f t="shared" si="4"/>
-        <v>0.17827043346991589</v>
+        <v>0.18949434229137199</v>
       </c>
       <c r="AI8" s="6">
         <f t="shared" si="5"/>
-        <v>0.16809240295308409</v>
+        <v>0.17884391944229278</v>
       </c>
       <c r="AJ8" s="6">
         <f t="shared" si="6"/>
-        <v>0.16507216739278624</v>
+        <v>0.19233176096901888</v>
       </c>
       <c r="AK8" s="6">
         <f t="shared" si="7"/>
-        <v>0.15967500699584108</v>
+        <v>0.16512116978954722</v>
       </c>
       <c r="AL8" s="6">
         <f t="shared" si="8"/>
-        <v>0.17646035015447992</v>
+        <v>0.16629800092480079</v>
       </c>
       <c r="AM8" s="6">
         <f t="shared" si="9"/>
-        <v>0.15873839904326081</v>
+        <v>0.17907481564490976</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="7">
         <v>7000</v>
       </c>
-      <c r="B9" s="1">
-        <v>222788</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="7">
+        <v>162278</v>
+      </c>
+      <c r="C9" s="7">
         <v>242416</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="7">
         <v>8000</v>
       </c>
-      <c r="B10" s="1">
-        <v>330952</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="7">
+        <v>217491</v>
+      </c>
+      <c r="C10" s="7">
         <v>358534</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="7">
         <v>9000</v>
       </c>
-      <c r="B11" s="1">
-        <v>514029</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="7">
+        <v>309291</v>
+      </c>
+      <c r="C11" s="7">
         <v>508527</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="9">
         <v>10000</v>
       </c>
-      <c r="B12" s="1">
-        <v>642427</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="9">
+        <v>457024</v>
+      </c>
+      <c r="C12" s="9">
         <v>695467</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="Q13" s="7" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="Q13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AC13" s="7" t="s">
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AC13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
@@ -18359,45 +18371,45 @@
       </c>
     </row>
     <row r="24" spans="5:39" x14ac:dyDescent="0.25">
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="Q24" s="7" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="Q24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AC24" s="7" t="s">
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AC24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="7"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
     </row>
     <row r="25" spans="5:39" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="s">
@@ -19227,32 +19239,32 @@
       </c>
     </row>
     <row r="34" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="Q34" s="7" t="s">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="Q34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
     </row>
     <row r="35" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E35" s="5" t="s">
@@ -19731,19 +19743,19 @@
       </c>
     </row>
     <row r="43" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
     </row>
     <row r="44" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E44" s="5" t="s">
@@ -19779,19 +19791,19 @@
       <c r="O44" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q44" s="7" t="s">
+      <c r="Q44" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="7"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
     </row>
     <row r="45" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E45" s="5">
@@ -20246,6 +20258,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E43:O43"/>
+    <mergeCell ref="Q44:AA44"/>
+    <mergeCell ref="E34:O34"/>
+    <mergeCell ref="E24:O24"/>
+    <mergeCell ref="Q24:AA24"/>
+    <mergeCell ref="Q34:AA34"/>
     <mergeCell ref="AC1:AM1"/>
     <mergeCell ref="AC13:AM13"/>
     <mergeCell ref="AC24:AM24"/>
@@ -20254,12 +20272,6 @@
     <mergeCell ref="Q1:AA1"/>
     <mergeCell ref="E13:O13"/>
     <mergeCell ref="Q13:AA13"/>
-    <mergeCell ref="E43:O43"/>
-    <mergeCell ref="Q44:AA44"/>
-    <mergeCell ref="E34:O34"/>
-    <mergeCell ref="E24:O24"/>
-    <mergeCell ref="Q24:AA24"/>
-    <mergeCell ref="Q34:AA34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20271,7 +20283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B93F303-A7C5-4525-9596-1DF8221AF4F6}">
   <dimension ref="A1:S117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="J122" sqref="J122:J123"/>
     </sheetView>
   </sheetViews>
@@ -20282,19 +20294,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="E1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -20603,34 +20615,34 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>1000</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8">
         <v>2000</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7" t="s">
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7" t="s">
+      <c r="J18" s="8"/>
+      <c r="K18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7" t="s">
+      <c r="L18" s="8"/>
+      <c r="M18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="8"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
@@ -20899,31 +20911,31 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="E40" s="7" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="E40" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="I40" s="7" t="s">
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="I40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="M40" s="7" t="s">
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="M40" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="Q40" s="7" t="s">
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="Q40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -21255,26 +21267,26 @@
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="E98" s="7" t="s">
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="E98" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="I98" s="7" t="s">
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="I98" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="M98" s="7" t="s">
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="M98" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
@@ -21543,21 +21555,21 @@
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="F110" s="7" t="s">
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="F110" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="J110" s="7" t="s">
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="J110" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K110" s="7"/>
-      <c r="L110" s="7"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
@@ -21764,28 +21776,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M98:O98"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="I98:K98"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
     <mergeCell ref="B110:D110"/>
     <mergeCell ref="F110:H110"/>
     <mergeCell ref="J110:L110"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="I98:K98"/>
-    <mergeCell ref="M98:O98"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="M40:O40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
